--- a/corne/turkey/turkey_crkbd_cheatsheet.xlsx
+++ b/corne/turkey/turkey_crkbd_cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\code\deltakeys\corne\turkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F054363C-0A08-41DD-A50E-CDF09FAA9D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7654CD8-C214-4769-BDBD-0ED1C4B853B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17955" yWindow="5610" windowWidth="32160" windowHeight="21435" xr2:uid="{1E181743-8F83-467F-80E8-6554C7BEF26B}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,6 +518,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -860,7 +878,7 @@
   <dimension ref="B1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,11 +933,11 @@
         <v>85</v>
       </c>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
       <c r="S2" s="6"/>
       <c r="T2" s="5"/>
       <c r="U2" s="6"/>
@@ -956,11 +974,11 @@
         <v>44</v>
       </c>
       <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
       <c r="S3" s="9"/>
       <c r="T3" s="8" t="s">
         <v>71</v>
@@ -999,11 +1017,11 @@
         <v>45</v>
       </c>
       <c r="M4" s="12"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
       <c r="S4" s="12"/>
       <c r="T4" s="11"/>
       <c r="U4" s="12"/>
@@ -1040,11 +1058,11 @@
         <v>6</v>
       </c>
       <c r="M5" s="16"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
       <c r="S5" s="16"/>
       <c r="T5" s="15" t="s">
         <v>23</v>
@@ -1083,7 +1101,7 @@
       <c r="M6" s="16"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="P6" s="32"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
       <c r="S6" s="16"/>
@@ -1122,7 +1140,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
       <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="7"/>
       <c r="S7" s="6"/>
@@ -1163,7 +1181,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="20"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="P8" s="34"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="10"/>
       <c r="S8" s="9"/>
@@ -1214,7 +1232,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="31"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="13"/>
       <c r="S9" s="12"/>
@@ -1267,7 +1285,7 @@
         <v>16</v>
       </c>
       <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="P10" s="32"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="17" t="s">
         <v>22</v>
@@ -1310,7 +1328,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="P11" s="32"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="16"/>
@@ -1349,7 +1367,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="7"/>
       <c r="S12" s="6"/>
@@ -1388,7 +1406,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="10"/>
       <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="P13" s="34"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="10"/>
       <c r="S13" s="9"/>
@@ -1429,7 +1447,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="23"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="31"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="13"/>
       <c r="S14" s="12"/>
@@ -1478,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="P15" s="24"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="17" t="s">
         <v>21</v>
@@ -1521,7 +1539,7 @@
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="P16" s="24"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
@@ -1552,7 +1570,7 @@
       <c r="M17" s="16"/>
       <c r="N17" s="7"/>
       <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="P17" s="24"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="7"/>
       <c r="S17" s="16"/>
@@ -1560,13 +1578,13 @@
       <c r="U17" s="16"/>
       <c r="V17" s="7"/>
       <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
@@ -1585,7 +1603,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="10"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="P18" s="24"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="10"/>
       <c r="S18" s="16"/>
@@ -1595,13 +1613,13 @@
       <c r="U18" s="16"/>
       <c r="V18" s="10"/>
       <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
@@ -1620,7 +1638,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="22"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="P19" s="24"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="22" t="s">
         <v>69</v>
@@ -1634,13 +1652,13 @@
         <v>70</v>
       </c>
       <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
@@ -1661,7 +1679,7 @@
         <v>38</v>
       </c>
       <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
+      <c r="P20" s="24"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="17" t="s">
         <v>35</v>
@@ -1673,13 +1691,13 @@
         <v>36</v>
       </c>
       <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
     </row>
     <row r="21" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/corne/turkey/turkey_crkbd_cheatsheet.xlsx
+++ b/corne/turkey/turkey_crkbd_cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\code\deltakeys\corne\turkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7654CD8-C214-4769-BDBD-0ED1C4B853B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D89A393-96DC-4B85-9AD5-662BBE62DB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17955" yWindow="5610" windowWidth="32160" windowHeight="21435" xr2:uid="{1E181743-8F83-467F-80E8-6554C7BEF26B}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Q</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>&amp;</t>
   </si>
   <si>
@@ -59,15 +56,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -125,18 +113,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>;    :</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -294,13 +270,37 @@
   </si>
   <si>
     <t>CPS LK</t>
+  </si>
+  <si>
+    <t>A (GUI)</t>
+  </si>
+  <si>
+    <t>S (ALT)</t>
+  </si>
+  <si>
+    <t>D (CTL)</t>
+  </si>
+  <si>
+    <t>F (SFT)</t>
+  </si>
+  <si>
+    <t>J (SFT)</t>
+  </si>
+  <si>
+    <t>K (CTL)</t>
+  </si>
+  <si>
+    <t>L (ALT)</t>
+  </si>
+  <si>
+    <t>;: (GUI)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,8 +370,22 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +395,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,9 +543,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,6 +565,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -878,7 +919,7 @@
   <dimension ref="B1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +959,7 @@
     <row r="1" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:30" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
@@ -930,14 +971,14 @@
       <c r="J2" s="7"/>
       <c r="K2" s="6"/>
       <c r="L2" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M2" s="6"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
       <c r="S2" s="6"/>
       <c r="T2" s="5"/>
       <c r="U2" s="6"/>
@@ -955,33 +996,33 @@
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M3" s="9"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
       <c r="S3" s="9"/>
       <c r="T3" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="8"/>
@@ -1014,14 +1055,14 @@
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M4" s="12"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
       <c r="S4" s="12"/>
       <c r="T4" s="11"/>
       <c r="U4" s="12"/>
@@ -1043,45 +1084,45 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" s="16"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
       <c r="S5" s="16"/>
       <c r="T5" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="W5" s="16"/>
       <c r="X5" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y5" s="16"/>
       <c r="Z5" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC5" s="16"/>
       <c r="AD5" s="17"/>
@@ -1101,7 +1142,7 @@
       <c r="M6" s="16"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-      <c r="P6" s="32"/>
+      <c r="P6" s="31"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
       <c r="S6" s="16"/>
@@ -1119,19 +1160,19 @@
     </row>
     <row r="7" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
@@ -1140,7 +1181,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
       <c r="O7" s="19"/>
-      <c r="P7" s="33"/>
+      <c r="P7" s="32"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="7"/>
       <c r="S7" s="6"/>
@@ -1160,49 +1201,49 @@
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="20"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="34"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="10"/>
       <c r="S8" s="9"/>
       <c r="T8" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="W8" s="9"/>
       <c r="X8" s="10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Y8" s="9"/>
       <c r="Z8" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AA8" s="9"/>
       <c r="AB8" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AC8" s="9"/>
       <c r="AD8" s="10"/>
@@ -1223,37 +1264,37 @@
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="31"/>
+      <c r="P9" s="30"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="13"/>
       <c r="S9" s="12"/>
       <c r="T9" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="U9" s="12"/>
-      <c r="V9" s="28" t="s">
-        <v>65</v>
+      <c r="V9" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="W9" s="12"/>
-      <c r="X9" s="28" t="s">
-        <v>66</v>
+      <c r="X9" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="Y9" s="12"/>
-      <c r="Z9" s="28" t="s">
-        <v>67</v>
+      <c r="Z9" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="28" t="s">
-        <v>68</v>
+      <c r="AB9" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="AC9" s="12"/>
       <c r="AD9" s="13"/>
@@ -1262,53 +1303,53 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="15" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="15" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="17" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O10" s="18"/>
-      <c r="P10" s="32"/>
+      <c r="P10" s="31"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S10" s="16"/>
       <c r="T10" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U10" s="16"/>
       <c r="V10" s="15" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="W10" s="16"/>
       <c r="X10" s="17" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="Y10" s="16"/>
       <c r="Z10" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="AA10" s="16"/>
-      <c r="AB10" s="17" t="s">
-        <v>32</v>
+      <c r="AB10" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="AC10" s="16"/>
       <c r="AD10" s="17"/>
@@ -1328,7 +1369,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
-      <c r="P11" s="32"/>
+      <c r="P11" s="31"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="16"/>
@@ -1346,19 +1387,19 @@
     </row>
     <row r="12" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
@@ -1367,7 +1408,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="33"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="7"/>
       <c r="S12" s="6"/>
@@ -1387,31 +1428,31 @@
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
       <c r="M13" s="9"/>
       <c r="N13" s="10"/>
       <c r="O13" s="21"/>
-      <c r="P13" s="34"/>
+      <c r="P13" s="33"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="10"/>
       <c r="S13" s="9"/>
       <c r="T13" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="8"/>
@@ -1440,27 +1481,27 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="13"/>
       <c r="M14" s="12"/>
       <c r="N14" s="23"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="31"/>
+      <c r="P14" s="30"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="13"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="U14" s="12"/>
-      <c r="V14" s="27" t="s">
-        <v>61</v>
+      <c r="V14" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Y14" s="12"/>
       <c r="Z14" s="11"/>
@@ -1473,53 +1514,53 @@
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O15" s="16"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="S15" s="16"/>
       <c r="T15" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="W15" s="16"/>
       <c r="X15" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="Y15" s="16"/>
       <c r="Z15" s="15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AA15" s="16"/>
       <c r="AB15" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AC15" s="16"/>
       <c r="AD15" s="17"/>
@@ -1597,8 +1638,8 @@
       <c r="I18" s="16"/>
       <c r="J18" s="10"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="26" t="s">
-        <v>19</v>
+      <c r="L18" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="10"/>
@@ -1607,8 +1648,8 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="10"/>
       <c r="S18" s="16"/>
-      <c r="T18" s="26" t="s">
-        <v>19</v>
+      <c r="T18" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="U18" s="16"/>
       <c r="V18" s="10"/>
@@ -1632,8 +1673,8 @@
       <c r="I19" s="16"/>
       <c r="J19" s="22"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="26" t="s">
-        <v>18</v>
+      <c r="L19" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="22"/>
@@ -1641,15 +1682,15 @@
       <c r="P19" s="24"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="22" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="S19" s="16"/>
-      <c r="T19" s="26" t="s">
-        <v>20</v>
+      <c r="T19" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="U19" s="16"/>
       <c r="V19" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="W19" s="16"/>
       <c r="X19" s="24"/>
@@ -1670,25 +1711,25 @@
       <c r="H20" s="24"/>
       <c r="I20" s="16"/>
       <c r="J20" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="17"/>
       <c r="M20" s="16"/>
       <c r="N20" s="17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O20" s="16"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="S20" s="16"/>
       <c r="T20" s="17"/>
       <c r="U20" s="16"/>
       <c r="V20" s="17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="W20" s="16"/>
       <c r="X20" s="24"/>

--- a/corne/turkey/turkey_crkbd_cheatsheet.xlsx
+++ b/corne/turkey/turkey_crkbd_cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\code\deltakeys\corne\turkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D89A393-96DC-4B85-9AD5-662BBE62DB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EFC356-1668-4327-95A4-A06203570233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17955" yWindow="5610" windowWidth="32160" windowHeight="21435" xr2:uid="{1E181743-8F83-467F-80E8-6554C7BEF26B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>Q</t>
   </si>
@@ -294,6 +294,51 @@
   </si>
   <si>
     <t>;: (GUI)</t>
+  </si>
+  <si>
+    <t>M PLAY</t>
+  </si>
+  <si>
+    <t>CUT</t>
+  </si>
+  <si>
+    <t>COPY</t>
+  </si>
+  <si>
+    <t>UNDO</t>
+  </si>
+  <si>
+    <t>PASTE</t>
+  </si>
+  <si>
+    <t>B BACK</t>
+  </si>
+  <si>
+    <t>B FRWD</t>
+  </si>
+  <si>
+    <t>M WH UP</t>
+  </si>
+  <si>
+    <t>M LEFT</t>
+  </si>
+  <si>
+    <t>M DOWN</t>
+  </si>
+  <si>
+    <t>M RIGHT</t>
+  </si>
+  <si>
+    <t>M WH DN</t>
+  </si>
+  <si>
+    <t>MB 1</t>
+  </si>
+  <si>
+    <t>MB 2</t>
+  </si>
+  <si>
+    <t>MB 3</t>
   </si>
 </sst>
 </file>
@@ -466,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,73 +525,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -555,16 +570,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -919,7 +925,7 @@
   <dimension ref="B1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,201 +968,213 @@
         <v>68</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="L2" s="5"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
       <c r="S2" s="6"/>
       <c r="T2" s="5"/>
       <c r="U2" s="6"/>
-      <c r="V2" s="5"/>
+      <c r="V2" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="W2" s="6"/>
-      <c r="X2" s="7"/>
+      <c r="X2" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="5"/>
+      <c r="Z2" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="AA2" s="6"/>
-      <c r="AB2" s="7"/>
+      <c r="AB2" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="7"/>
+      <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="8" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="10"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="7"/>
     </row>
     <row r="4" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9">
         <v>7</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13">
+      <c r="E4" s="10"/>
+      <c r="F4" s="9">
         <v>8</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11">
+      <c r="G4" s="10"/>
+      <c r="H4" s="9">
         <v>9</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13">
+      <c r="I4" s="10"/>
+      <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="13"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="9"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="15" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="15" t="s">
+      <c r="U5" s="12"/>
+      <c r="V5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="17" t="s">
+      <c r="W5" s="12"/>
+      <c r="X5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="15" t="s">
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="17" t="s">
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="17"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -1167,7 +1185,7 @@
         <v>72</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>73</v>
       </c>
       <c r="G7" s="6"/>
@@ -1175,215 +1193,227 @@
         <v>75</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="7"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="5"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="5"/>
+      <c r="T7" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="U7" s="6"/>
-      <c r="V7" s="5"/>
+      <c r="V7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="W7" s="6"/>
-      <c r="X7" s="7"/>
+      <c r="X7" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="5"/>
+      <c r="Z7" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="7"/>
+      <c r="AB7" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="7"/>
+      <c r="AD7" s="5"/>
     </row>
     <row r="8" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="8" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="8" t="s">
+      <c r="U8" s="8"/>
+      <c r="V8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="10" t="s">
+      <c r="W8" s="8"/>
+      <c r="X8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="8" t="s">
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="10" t="s">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="10"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="7"/>
     </row>
     <row r="9" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9">
         <v>4</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13">
+      <c r="E9" s="10"/>
+      <c r="F9" s="9">
         <v>5</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11">
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
         <v>6</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="22" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="11" t="s">
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="12"/>
-      <c r="V9" s="27" t="s">
+      <c r="U9" s="10"/>
+      <c r="V9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W9" s="12"/>
-      <c r="X9" s="27" t="s">
+      <c r="W9" s="10"/>
+      <c r="X9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="27" t="s">
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="27" t="s">
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="13"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="9"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17" t="s">
+      <c r="K10" s="12"/>
+      <c r="L10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17" t="s">
+      <c r="M10" s="12"/>
+      <c r="N10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="17" t="s">
+      <c r="O10" s="12"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="15" t="s">
+      <c r="S10" s="12"/>
+      <c r="T10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="15" t="s">
+      <c r="U10" s="12"/>
+      <c r="V10" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="W10" s="16"/>
-      <c r="X10" s="17" t="s">
+      <c r="W10" s="12"/>
+      <c r="X10" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="15" t="s">
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="34" t="s">
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="17"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="11"/>
     </row>
     <row r="11" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -1394,7 +1424,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>74</v>
       </c>
       <c r="G12" s="6"/>
@@ -1402,343 +1432,357 @@
         <v>76</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="7"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="5"/>
+      <c r="T12" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="U12" s="6"/>
-      <c r="V12" s="5"/>
+      <c r="V12" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="W12" s="6"/>
-      <c r="X12" s="7"/>
+      <c r="X12" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="Y12" s="6"/>
-      <c r="Z12" s="5"/>
+      <c r="Z12" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="AA12" s="6"/>
-      <c r="AB12" s="7"/>
+      <c r="AB12" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="7"/>
+      <c r="AD12" s="5"/>
     </row>
     <row r="13" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="8" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U13" s="9"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="10"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="7"/>
     </row>
     <row r="14" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13">
+      <c r="E14" s="10"/>
+      <c r="F14" s="9">
         <v>2</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11">
+      <c r="G14" s="10"/>
+      <c r="H14" s="9">
         <v>3</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="22" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="11" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U14" s="12"/>
-      <c r="V14" s="26" t="s">
+      <c r="U14" s="10"/>
+      <c r="V14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="W14" s="12"/>
-      <c r="X14" s="13" t="s">
+      <c r="W14" s="10"/>
+      <c r="X14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="13"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="9"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17" t="s">
+      <c r="K15" s="12"/>
+      <c r="L15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17" t="s">
+      <c r="M15" s="12"/>
+      <c r="N15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="16"/>
-      <c r="T15" s="15" t="s">
+      <c r="S15" s="12"/>
+      <c r="T15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U15" s="16"/>
-      <c r="V15" s="15" t="s">
+      <c r="U15" s="12"/>
+      <c r="V15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W15" s="16"/>
-      <c r="X15" s="17" t="s">
+      <c r="W15" s="12"/>
+      <c r="X15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="15" t="s">
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="17" t="s">
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="17"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="11"/>
     </row>
     <row r="16" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="37" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="37" t="s">
+      <c r="M18" s="12"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="U18" s="16"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="35" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="22" t="s">
+      <c r="M19" s="12"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="S19" s="16"/>
-      <c r="T19" s="36" t="s">
+      <c r="S19" s="12"/>
+      <c r="T19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="U19" s="16"/>
-      <c r="V19" s="22" t="s">
+      <c r="U19" s="12"/>
+      <c r="V19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="W19" s="16"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17" t="s">
+      <c r="K20" s="12"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="17" t="s">
+      <c r="O20" s="12"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="17" t="s">
+      <c r="S20" s="12"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="W20" s="16"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
     </row>
     <row r="21" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/corne/turkey/turkey_crkbd_cheatsheet.xlsx
+++ b/corne/turkey/turkey_crkbd_cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\code\deltakeys\corne\turkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EFC356-1668-4327-95A4-A06203570233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C3CCD6-54DF-449E-8AFB-0992E0C40608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17955" yWindow="5610" windowWidth="32160" windowHeight="21435" xr2:uid="{1E181743-8F83-467F-80E8-6554C7BEF26B}"/>
   </bookViews>
@@ -1787,6 +1787,6 @@
     <row r="21" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>